--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_14-37.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_14-37.xlsx
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>7778:0</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1838,17 +1835,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1856,7 +1853,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1864,17 +1861,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1882,7 +1879,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1890,13 +1887,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1916,13 +1913,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1934,7 +1931,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1942,13 +1939,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1960,7 +1957,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1968,13 +1965,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1994,13 +1991,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>35</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2012,7 +2009,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2020,13 +2017,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>19.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2046,77 +2043,51 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="51" ht="24.75" customHeight="1">
-      <c r="A51" s="6">
-        <v>48</v>
-      </c>
-      <c t="s" r="B51" s="7">
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="K51" s="10">
+        <v>2327.71</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="11">
         <v>82</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c t="s" r="H51" s="8">
-        <v>34</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9">
-        <v>30</v>
-      </c>
-      <c r="M51" s="9"/>
-      <c t="s" r="N51" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" ht="26.25" customHeight="1">
-      <c r="K52" s="10">
-        <v>2372.71</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="11">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c t="s" r="F52" s="12">
         <v>83</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c t="s" r="F53" s="12">
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
+      <c t="s" r="I52" s="14">
         <v>84</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c t="s" r="I53" s="14">
-        <v>85</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="155">
+  <mergeCells count="152">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2265,13 +2236,10 @@
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:N52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
